--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560368/JX560368_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560368/JX560368_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.8932881472</v>
+        <v>45441.8335442325</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['2091_2092del']</t>
+          <t>['2029_2064insgtcgcgttgtggtaacagccgatactgactagccc', '2069_2120del', '2087_2136del', '2063_2092insataatgcgtaagcgactattagactttcg', '2078_2210del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89328817612</v>
+        <v>45441.83354426168</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['664t&gt;c']</t>
+          <t>['609_711insctaatcaattttcggtacgggctaacacctcgtggagactagggtctgcactagaacgacaagccccaagaagttagtagtcgccaaaccccttccccaaag', '699_815insgtttgcattagaaaacatgcttgcgcactcgtttagaggttcaggggtctcagatctagtgccgttaatccatagggaagggctgtgacctgcacgtgtactgcctggcatggtca', '650_680del', '663_790inscattatgaaaggagcaggtagagctcaaggcaatcccgtctttacactcaacttagctaaagcatcgccctggaaaaattcgttgagaagttttcccgctccatacaatgggaaagaccccaatgct', '620_636del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89328819927</v>
+        <v>45441.83354428459</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3903_3906del']</t>
+          <t>['3833_3890del', '3820_3935insgggagcgctccgtattcacgtctgaggaagttacgcccgggagcgtgccccaggtcttaattagagacgattttttttaagtgtgcgtctatcgttcaaatataagtgtgttggc', '3820_3851insaacagtaaagcccaaaagtggtatgatgttg', '3819_3897del', '3824_3916instgtttagcaactagtgatccaagcagcaacaggtactgatgtttcaatggaactcaggggatcgcttccagcggttctacggaatcatggtg']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89328832491</v>
+        <v>45441.83354430775</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['2125_2129insgcgg']</t>
+          <t>['2231_2263del', '2238_2329inscattcatctaatatcacccgtttcgcacactagaggaaagaccgcgcgatacgaaatatcccatgattgcgccatagagctttaccgcgcc', '2047_2106insagaatctaacacggagtcactcgcaaggcaatcattgcgtgacatcgggcgaaccacaa', '2025_2122del', '2113_2183del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['642_642del']</t>
+          <t>['631_732insacggaaggagtctatcctatctttacctctcgtggcattcgtggcgaggattcatgagaccaaggaggcctacacagatttgagtggccgacgcaatgaac', '633_675instagacatgcgtcacggacgccccggttgagaccttgtttggt', '637_660inscccgagatactcccacgaattga', '605_746del', '602_673inscgtggcaacggaccatagagaactgaccgatgctacttgctcaatatgattcttcgcttccagctctttcg']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89328834805</v>
+        <v>45441.83354432582</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['2053_2058insccctg']</t>
+          <t>['2048_2106instcgttccggccgcacaacattgtcacgaggtgccacacgctgtctgtattacacttct', '2147_2214del', '2073_2163insagcatggcatatctaggctaccatgtagtcttttcttttgtaccaattgttgcccgggacgtatcgttcgtcatggaccataacgcagtt', '2031_2057inscattctcagcctcgtgcacgtacacc', '2048_2120insactcctactgtaaggcactggcttattcatttacggccgatacactgtatatatggcattgtttcttagact']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3811_3813instc']</t>
+          <t>['3877_4015insaccatcgcgattgcgcggggattcagcattaccaaaactcggtggcaacaaagcactcagaagactactgcataggcaaaccgcttcgggtggataacgtctccaatagaagagcgatcggggtagttggttgatggt', '3888_3964insggcgcggcttgtaaaggcgactttcggtgccgtagaattattgagaactcgtcggggtacaaatttgttgtcggac', '3807_3917instgatactacgatacgagtcacgtaggtattggagctcaaacgcggaagcgggcttggaggcacagaagtcggccgcctttttggagtggcgaatctggcaagatcgtgga', '3861_3912del', '3810_3872del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89328837699</v>
+        <v>45441.83354435467</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['616_617del']</t>
+          <t>['647_736inscctggcctagtggagcaattactagccgggaattgcgccattgtcagcggtgtcgttctacgacaccctttattgtaagtctttaccgc', '621_659del', '666_728del', '639_705del', '678_729insggtggcccgattttacaattgacttttatggtacagcttgggctttgacag']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3908c&gt;g']</t>
+          <t>['3889_3966del', '3807_3922del', '3857_3898del', '3840_3856del', '3893_3994del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89328840013</v>
+        <v>45441.83354437783</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['2199_2203insgtgc']</t>
+          <t>['2016_2156inscgtcttcttccgaccgtgccttgtaattgctactagcccagtaggagcacattgtttcctaggacggacagggttcggaccgacgtatggccgcactagagagagaaagatttggtattatagtccgtctttggactatc', '2206_2282insatgtacctacagcagaattagtgcgcacgagtgcagacattgctgaccccttataccctggatgccggagggcagt', '2031_2134insgagtaaggcacctatcctgctgttgtcgtccgatacaacataccatgtctgagtggattgcaaagtgaagaaagatgttcgggatgaggaaatcaccccaacc', '2178_2263insccttcattcagtcgtggggacgaaggtggtctatgatccatactggtagtgagggcggtatcgcggcgtatgtatcgtaatctgc', '2176_2260del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['646t&gt;c']</t>
+          <t>['691_832insctgctgtgccggctaggccttattaggaatcaaccagtgcggccagcgcatgcggcagaaatggcttcagaccagttaggggagtacatagctggagttataaacggcgtagcgaagttctagaaggtccgaggggtccca', '653_776del', '637_713insacgtcgaacggataacggcagaggtgttcaacttcctacaggagactctacgtatgtgagcttacgggcaactcag', '661_765insttttgaatcaccgataaatagacacatagtagaccaggccgcttccagtaggttaacaccttagccggctaaggtagcacggaatgggctggatgcaacgtgcg', '669_752del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3824_3825insa']</t>
+          <t>['3843_3918inscaaggtataaggtttcgggaaaactgtaaggcgaagcaatgtcttccaatgggtactacttatcagaccctagcg', '3866_3991insgcatcatggacatcatgtcggccgaagcccacaaatagcgccgtaagacggttaggtatacatcgttacaattgagtgacgggacgcgataagggcgtcattcctggggttcagtacatcgaaca', '3827_3893insatgcctgtggcacattcttagatcgattaatgatgattttccagcgtttgaatggtttctgtctta', '3840_3981del', '3814_3839insttcctacaggcctaaatagcggttc']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89328842329</v>
+        <v>45441.83354440676</v>
       </c>
     </row>
   </sheetData>
